--- a/wiki/word-clouds/xlsx/word_clouds.xlsx
+++ b/wiki/word-clouds/xlsx/word_clouds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="18960" windowHeight="8265" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="15" windowWidth="18960" windowHeight="8265" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="1" r:id="rId1"/>
@@ -1238,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2099,7 +2099,7 @@
   <dimension ref="B2:I63"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H63"/>
+      <selection activeCell="I3" sqref="I3:I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3852,8 +3852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5663,7 +5663,7 @@
   <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H12"/>
+      <selection activeCell="I12" sqref="I3:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5989,7 +5989,7 @@
   <dimension ref="B2:I36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H36"/>
+      <selection activeCell="I3" sqref="I3:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6986,8 +6986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I3:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7732,8 +7732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L225"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="D202" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15815,7 +15815,7 @@
   <dimension ref="B2:I225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
